--- a/case study/Interactive Turkey Map - Migration/2018-2019_data.xlsx
+++ b/case study/Interactive Turkey Map - Migration/2018-2019_data.xlsx
@@ -103,9 +103,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -455,13 +455,14 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -706,6 +707,12 @@
       <c r="G8">
         <v>2019</v>
       </c>
+      <c r="H8" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I8" s="1">
+        <v>27.288799999999998</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -731,6 +738,12 @@
       <c r="G9">
         <v>2019</v>
       </c>
+      <c r="H9" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>26.1358</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -754,6 +767,12 @@
       <c r="G10">
         <v>2019</v>
       </c>
+      <c r="H10" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>26.849900000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -777,6 +796,12 @@
       <c r="G11">
         <v>2019</v>
       </c>
+      <c r="H11" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I11" s="1">
+        <v>26.833300000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -800,6 +825,12 @@
       <c r="G12">
         <v>2019</v>
       </c>
+      <c r="H12" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>26.333300000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -846,6 +877,12 @@
       <c r="G14">
         <v>2019</v>
       </c>
+      <c r="H14" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>27.288799999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -869,6 +906,12 @@
       <c r="G15">
         <v>2019</v>
       </c>
+      <c r="H15" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26.1358</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -892,8 +935,14 @@
       <c r="G16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I16" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -915,8 +964,14 @@
       <c r="G17">
         <v>2019</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I17" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -938,8 +993,14 @@
       <c r="G18">
         <v>2019</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -962,7 +1023,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1045,14 @@
       <c r="G20">
         <v>2019</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I20" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1007,8 +1074,14 @@
       <c r="G21">
         <v>2019</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I21" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1030,8 +1103,14 @@
       <c r="G22">
         <v>2019</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I22" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1053,8 +1132,14 @@
       <c r="G23">
         <v>2019</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I23" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1076,8 +1161,14 @@
       <c r="G24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1191,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1122,8 +1213,14 @@
       <c r="G26">
         <v>2019</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I26" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1145,8 +1242,14 @@
       <c r="G27">
         <v>2019</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I27" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1168,8 +1271,14 @@
       <c r="G28">
         <v>2019</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1191,8 +1300,14 @@
       <c r="G29">
         <v>2019</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I29" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1214,8 +1329,14 @@
       <c r="G30">
         <v>2019</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1359,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1381,14 @@
       <c r="G32">
         <v>2019</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I32" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1283,8 +1410,14 @@
       <c r="G33">
         <v>2019</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I33" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1306,8 +1439,14 @@
       <c r="G34">
         <v>2019</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1329,8 +1468,14 @@
       <c r="G35">
         <v>2019</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I35" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1352,8 +1497,14 @@
       <c r="G36">
         <v>2019</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1527,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1398,8 +1549,14 @@
       <c r="G38">
         <v>2019</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I38" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1421,8 +1578,14 @@
       <c r="G39">
         <v>2019</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I39" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1444,8 +1607,14 @@
       <c r="G40">
         <v>2019</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I40" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1467,8 +1636,14 @@
       <c r="G41">
         <v>2019</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I41" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1490,8 +1665,14 @@
       <c r="G42">
         <v>2019</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I42" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1695,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1536,8 +1717,14 @@
       <c r="G44">
         <v>2019</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I44" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1559,8 +1746,14 @@
       <c r="G45">
         <v>2019</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I45" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1582,8 +1775,14 @@
       <c r="G46">
         <v>2019</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I46" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1605,8 +1804,14 @@
       <c r="G47">
         <v>2019</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I47" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1628,8 +1833,14 @@
       <c r="G48">
         <v>2019</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1863,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1674,8 +1885,14 @@
       <c r="G50">
         <v>2019</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I50" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1697,8 +1914,14 @@
       <c r="G51">
         <v>2019</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I51" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1720,8 +1943,14 @@
       <c r="G52">
         <v>2019</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I52" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1972,14 @@
       <c r="G53">
         <v>2019</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I53" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1766,8 +2001,14 @@
       <c r="G54">
         <v>2019</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I54" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +2031,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1812,8 +2053,14 @@
       <c r="G56">
         <v>2019</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I56" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -1835,8 +2082,14 @@
       <c r="G57">
         <v>2019</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I57" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1858,8 +2111,14 @@
       <c r="G58">
         <v>2019</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I58" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1881,8 +2140,14 @@
       <c r="G59">
         <v>2019</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I59" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1904,8 +2169,14 @@
       <c r="G60">
         <v>2019</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I60" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +2199,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1950,8 +2221,14 @@
       <c r="G62">
         <v>2019</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I62" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -1973,8 +2250,14 @@
       <c r="G63">
         <v>2019</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I63" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -1996,8 +2279,14 @@
       <c r="G64">
         <v>2019</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I64" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2019,8 +2308,14 @@
       <c r="G65">
         <v>2019</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I65" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2042,8 +2337,14 @@
       <c r="G66">
         <v>2019</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I66" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2367,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2088,8 +2389,14 @@
       <c r="G68">
         <v>2019</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I68" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2111,8 +2418,14 @@
       <c r="G69">
         <v>2019</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I69" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2134,8 +2447,14 @@
       <c r="G70">
         <v>2019</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I70" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2157,8 +2476,14 @@
       <c r="G71">
         <v>2019</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I71" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2180,8 +2505,14 @@
       <c r="G72">
         <v>2019</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I72" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2535,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2226,8 +2557,14 @@
       <c r="G74">
         <v>2018</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I74" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2249,8 +2586,14 @@
       <c r="G75">
         <v>2018</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I75" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2272,8 +2615,14 @@
       <c r="G76">
         <v>2018</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I76" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2295,8 +2644,14 @@
       <c r="G77">
         <v>2018</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I77" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2319,7 +2674,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2335,8 +2690,14 @@
       <c r="G79">
         <v>2018</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I79" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2358,8 +2719,14 @@
       <c r="G80">
         <v>2018</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I80" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2381,8 +2748,14 @@
       <c r="G81">
         <v>2018</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I81" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2404,8 +2777,14 @@
       <c r="G82">
         <v>2018</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I82" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2427,8 +2806,14 @@
       <c r="G83">
         <v>2018</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I83" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2451,7 +2836,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -2467,8 +2852,14 @@
       <c r="G85">
         <v>2018</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I85" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2490,8 +2881,14 @@
       <c r="G86">
         <v>2018</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I86" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -2513,8 +2910,14 @@
       <c r="G87">
         <v>2018</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I87" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2536,8 +2939,14 @@
       <c r="G88">
         <v>2018</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I88" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2559,8 +2968,14 @@
       <c r="G89">
         <v>2018</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I89" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -2583,7 +2998,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -2599,8 +3014,14 @@
       <c r="G91">
         <v>2018</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I91" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2622,8 +3043,14 @@
       <c r="G92">
         <v>2018</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I92" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -2645,8 +3072,14 @@
       <c r="G93">
         <v>2018</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I93" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2668,8 +3101,14 @@
       <c r="G94">
         <v>2018</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I94" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2691,8 +3130,14 @@
       <c r="G95">
         <v>2018</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I95" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -2715,7 +3160,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -2731,8 +3176,14 @@
       <c r="G97">
         <v>2018</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I97" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2754,8 +3205,14 @@
       <c r="G98">
         <v>2018</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I98" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -2777,8 +3234,14 @@
       <c r="G99">
         <v>2018</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I99" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2800,8 +3263,14 @@
       <c r="G100">
         <v>2018</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I100" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2823,8 +3292,14 @@
       <c r="G101">
         <v>2018</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I101" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2847,7 +3322,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -2863,8 +3338,14 @@
       <c r="G103">
         <v>2018</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I103" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -2886,8 +3367,14 @@
       <c r="G104">
         <v>2018</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I104" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -2909,8 +3396,14 @@
       <c r="G105">
         <v>2018</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I105" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -2932,8 +3425,14 @@
       <c r="G106">
         <v>2018</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I106" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2955,8 +3454,14 @@
       <c r="G107">
         <v>2018</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I107" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +3484,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2995,8 +3500,14 @@
       <c r="G109">
         <v>2018</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I109" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3018,8 +3529,14 @@
       <c r="G110">
         <v>2018</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I110" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3041,8 +3558,14 @@
       <c r="G111">
         <v>2018</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I111" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -3064,8 +3587,14 @@
       <c r="G112">
         <v>2018</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I112" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3087,8 +3616,14 @@
       <c r="G113">
         <v>2018</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I113" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3111,7 +3646,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -3127,8 +3662,14 @@
       <c r="G115">
         <v>2018</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I115" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -3150,8 +3691,14 @@
       <c r="G116">
         <v>2018</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I116" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -3173,8 +3720,14 @@
       <c r="G117">
         <v>2018</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I117" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3196,8 +3749,14 @@
       <c r="G118">
         <v>2018</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I118" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3219,8 +3778,14 @@
       <c r="G119">
         <v>2018</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I119" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -3243,7 +3808,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3259,8 +3824,14 @@
       <c r="G121">
         <v>2018</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I121" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -3282,8 +3853,14 @@
       <c r="G122">
         <v>2018</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I122" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -3305,8 +3882,14 @@
       <c r="G123">
         <v>2018</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I123" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -3328,8 +3911,14 @@
       <c r="G124">
         <v>2018</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I124" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3351,8 +3940,14 @@
       <c r="G125">
         <v>2018</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I125" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3375,7 +3970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -3391,8 +3986,14 @@
       <c r="G127">
         <v>2018</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I127" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -3414,8 +4015,14 @@
       <c r="G128">
         <v>2018</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I128" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -3437,8 +4044,14 @@
       <c r="G129">
         <v>2018</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I129" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -3460,8 +4073,14 @@
       <c r="G130">
         <v>2018</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I130" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3483,8 +4102,14 @@
       <c r="G131">
         <v>2018</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I131" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3507,7 +4132,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -3523,8 +4148,14 @@
       <c r="G133">
         <v>2018</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I133" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -3546,8 +4177,14 @@
       <c r="G134">
         <v>2018</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I134" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -3569,8 +4206,14 @@
       <c r="G135">
         <v>2018</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I135" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3592,8 +4235,14 @@
       <c r="G136">
         <v>2018</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I136" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3615,8 +4264,14 @@
       <c r="G137">
         <v>2018</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I137" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -3639,7 +4294,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -3655,8 +4310,14 @@
       <c r="G139">
         <v>2018</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I139" s="1">
+        <v>26.849900000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3678,8 +4339,14 @@
       <c r="G140">
         <v>2018</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <v>36.893300000000004</v>
+      </c>
+      <c r="I140" s="1">
+        <v>27.288799999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -3701,8 +4368,14 @@
       <c r="G141">
         <v>2018</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <v>38.367800000000003</v>
+      </c>
+      <c r="I141" s="1">
+        <v>26.1358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -3724,8 +4397,14 @@
       <c r="G142">
         <v>2018</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <v>37.7333</v>
+      </c>
+      <c r="I142" s="1">
+        <v>26.833300000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3747,8 +4426,14 @@
       <c r="G143">
         <v>2018</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <v>39.166699999999999</v>
+      </c>
+      <c r="I143" s="1">
+        <v>26.333300000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -3771,7 +4456,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -3786,6 +4471,12 @@
       </c>
       <c r="G145">
         <v>2018</v>
+      </c>
+      <c r="H145" s="1">
+        <v>37.149900000000002</v>
+      </c>
+      <c r="I145" s="1">
+        <v>26.849900000000002</v>
       </c>
     </row>
   </sheetData>
